--- a/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/002- invoice for final payment.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/002- invoice for final payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\FIRE PIPE LOOP WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BED0E5A-2C1F-4F5C-AE3E-247377A6941D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37170069-2D21-4A9A-BA02-2CA6C4C873E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Supply " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Supply '!$A$1:$D$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Supply '!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t xml:space="preserve">Invoice </t>
   </si>
@@ -82,9 +82,6 @@
     <t>Total Payable amount Rs</t>
   </si>
   <si>
-    <t>10 June 2025</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
@@ -95,6 +92,27 @@
   </si>
   <si>
     <t>Payable Amount Rs (Supply scope)</t>
+  </si>
+  <si>
+    <t>BOQ Amount as per Purchase order</t>
+  </si>
+  <si>
+    <t>Received 20% Advance</t>
+  </si>
+  <si>
+    <t>Remaining amount as per Purchase order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC tech </t>
+  </si>
+  <si>
+    <t>SN AC Tech cu, electrician</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>11 June 2025</t>
   </si>
 </sst>
 </file>
@@ -237,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -370,12 +388,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,25 +516,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -509,9 +540,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -529,6 +557,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,7 +667,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>311021</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="752474" cy="567068"/>
@@ -677,7 +729,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>118965</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>124213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -723,13 +775,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>71460</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>13931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>271171</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>172810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -826,13 +878,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>67193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>500102</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>11469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1196,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:G44"/>
+  <dimension ref="A12:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1209,340 +1261,373 @@
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D12" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="19" t="s">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="D20" s="53"/>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="22">
+        <v>6687821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="22">
+        <f>D22*20%</f>
+        <v>1337564.2000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49">
+        <f>D22-D23</f>
+        <v>5350256.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D26" s="42">
         <v>4800435</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="49" t="s">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="22">
-        <f>D21*15%</f>
+      <c r="D27" s="22">
+        <f>D26*15%</f>
         <v>720065.25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="49" t="s">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="22">
-        <f>D22+D21</f>
+      <c r="D28" s="22">
+        <f>D27+D26</f>
         <v>5520500.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1156460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="56">
-        <f>D23-D24</f>
-        <v>4364040.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="48">
-        <v>774048</v>
-      </c>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="49" t="s">
-        <v>16</v>
+      <c r="B29" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="22">
-        <f>D28*15%</f>
+        <v>1156460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="49">
+        <f>D28-D29</f>
+        <v>4364040.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="42">
+        <v>774048</v>
+      </c>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="22">
+        <f>D32*15%</f>
         <v>116107.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+    <row r="34" spans="1:8" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B34" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="22">
-        <f>D29+D28</f>
+      <c r="D34" s="22">
+        <f>D33+D32</f>
         <v>890155.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B35" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="22">
+        <v>181104</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="22">
-        <v>181104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="D36" s="27">
+        <f>D34-D35</f>
+        <v>709051.2</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="27">
-        <f>D30-D31</f>
-        <v>709051.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="28">
-        <f>D32+D25</f>
+      <c r="D37" s="28">
+        <f>D36+D30</f>
         <v>5073091.45</v>
       </c>
-      <c r="F34" s="36"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="45"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="39"/>
+      <c r="H38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="44"/>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="44"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.31" header="0.3" footer="0.3"/>
